--- a/testData/testdata.xlsx
+++ b/testData/testdata.xlsx
@@ -2,58 +2,66 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Praveen\PycharmProjects\Hybrid_Framework\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
     <t>admin@yourstore.com</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
-    <t>exp</t>
+    <t>Pass</t>
   </si>
   <si>
     <t>admn</t>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>admi@yourstore.com</t>
   </si>
   <si>
     <t>adm</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -102,7 +110,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -389,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,67 +409,159 @@
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
     <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/testdata.xlsx
+++ b/testData/testdata.xlsx
@@ -1,93 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Praveen\PycharmProjects\Hybrid_Framework\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7755" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>exp</t>
-  </si>
-  <si>
-    <t>admin@yourstore.com</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>admn</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>admi@yourstore.com</t>
-  </si>
-  <si>
-    <t>adm</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -109,28 +58,87 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -177,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,7 +220,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,179 +397,237 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="21.7109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="9.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>salary</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>admin@yourstore.com</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>admin@yourstore.com</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>admn</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>admi@yourstore.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>admi@yourstore.com</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adm</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
     <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A6" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>